--- a/LISTA DE PRECIOS.xlsx
+++ b/LISTA DE PRECIOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Peleteria Valamy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Peleteria Valamy\Cevallos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41E624B-B1EB-4CFD-8554-F9ACC47CE7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B5A6FF-4E9E-477A-ACD0-58E4E524E98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F99F01E5-2568-4C67-B9A3-771BCDE2344B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F99F01E5-2568-4C67-B9A3-771BCDE2344B}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE PRECIOS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
   <si>
     <t>PELETERIA VALAMY</t>
   </si>
@@ -364,22 +364,10 @@
     <t>ENDULAI 0.8</t>
   </si>
   <si>
-    <t>PUNTERA 0.8</t>
-  </si>
-  <si>
     <t>SERFIL CON MALLA</t>
   </si>
   <si>
     <t>SERFIL CON DISEÑO</t>
-  </si>
-  <si>
-    <t>PUNTERA</t>
-  </si>
-  <si>
-    <t>PUNTERA #7</t>
-  </si>
-  <si>
-    <t>PUNTERA #9</t>
   </si>
   <si>
     <t>CIERRE x m</t>
@@ -464,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +471,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -837,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -917,17 +911,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,6 +923,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,12 +959,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,8 +977,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,8 +1323,8 @@
   </sheetPr>
   <dimension ref="B1:N331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,72 +1346,72 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="2:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="47" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="47" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="51"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1421,14 +1430,14 @@
       <c r="H5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="48"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1437,7 +1446,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="53"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="23" t="s">
         <v>5</v>
       </c>
@@ -1456,14 +1465,14 @@
       <c r="H6" s="19">
         <v>3.8</v>
       </c>
-      <c r="I6" s="48"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="23" t="s">
         <v>50</v>
       </c>
       <c r="K6" s="19">
         <v>3.8</v>
       </c>
-      <c r="L6" s="48"/>
+      <c r="L6" s="47"/>
       <c r="M6" s="23" t="s">
         <v>74</v>
       </c>
@@ -1472,7 +1481,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="53"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="25" t="s">
         <v>6</v>
       </c>
@@ -1491,14 +1500,14 @@
       <c r="H7" s="21">
         <v>3.8</v>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="25" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="20">
         <v>2.1</v>
       </c>
-      <c r="L7" s="48"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="25" t="s">
         <v>75</v>
       </c>
@@ -1507,7 +1516,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="53"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="25" t="s">
         <v>20</v>
       </c>
@@ -1520,18 +1529,18 @@
       <c r="F8" s="20">
         <v>2.5</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="48"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="25" t="s">
         <v>52</v>
       </c>
       <c r="K8" s="20">
         <v>3.5</v>
       </c>
-      <c r="L8" s="48"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="25" t="s">
         <v>76</v>
       </c>
@@ -1540,7 +1549,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="53"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="25" t="s">
         <v>21</v>
       </c>
@@ -1559,14 +1568,14 @@
       <c r="H9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="48"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="25" t="s">
         <v>53</v>
       </c>
       <c r="K9" s="20">
         <v>3.8</v>
       </c>
-      <c r="L9" s="48"/>
+      <c r="L9" s="47"/>
       <c r="M9" s="31" t="s">
         <v>77</v>
       </c>
@@ -1575,8 +1584,8 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="61" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="11">
@@ -1594,14 +1603,14 @@
       <c r="H10" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I10" s="48"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="20">
         <v>6.5</v>
       </c>
-      <c r="L10" s="48"/>
+      <c r="L10" s="47"/>
       <c r="M10" s="31" t="s">
         <v>78</v>
       </c>
@@ -1610,14 +1619,14 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="53"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="61" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="11">
         <v>5.6</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="60" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="11">
@@ -1629,14 +1638,14 @@
       <c r="H11" s="20">
         <v>3.4</v>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="25" t="s">
         <v>55</v>
       </c>
       <c r="K11" s="20">
         <v>5.8</v>
       </c>
-      <c r="L11" s="48"/>
+      <c r="L11" s="47"/>
       <c r="M11" s="31" t="s">
         <v>79</v>
       </c>
@@ -1645,14 +1654,14 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="53"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="61" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="11">
         <v>4.7</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="60" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="11">
@@ -1664,14 +1673,14 @@
       <c r="H12" s="20">
         <v>2.1</v>
       </c>
-      <c r="I12" s="48"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="25" t="s">
         <v>56</v>
       </c>
       <c r="K12" s="20">
         <v>6.5</v>
       </c>
-      <c r="L12" s="48"/>
+      <c r="L12" s="47"/>
       <c r="M12" s="31" t="s">
         <v>80</v>
       </c>
@@ -1680,7 +1689,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="53"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="25" t="s">
         <v>23</v>
       </c>
@@ -1694,19 +1703,19 @@
         <v>5.6</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H13" s="8">
         <v>0.95</v>
       </c>
-      <c r="I13" s="48"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="25" t="s">
         <v>57</v>
       </c>
       <c r="K13" s="20">
         <v>6</v>
       </c>
-      <c r="L13" s="48"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="31" t="s">
         <v>81</v>
       </c>
@@ -1715,8 +1724,8 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="61" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="11">
@@ -1730,14 +1739,14 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="48"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="25" t="s">
         <v>58</v>
       </c>
       <c r="K14" s="20">
         <v>4.8</v>
       </c>
-      <c r="L14" s="48"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="31" t="s">
         <v>82</v>
       </c>
@@ -1746,7 +1755,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="53"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="25" t="s">
         <v>9</v>
       </c>
@@ -1761,26 +1770,26 @@
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="25" t="s">
+      <c r="I15" s="47"/>
+      <c r="J15" s="61" t="s">
         <v>59</v>
       </c>
       <c r="K15" s="20">
         <v>4.5</v>
       </c>
-      <c r="L15" s="48"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="3"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="53"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="11">
         <v>3.8</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="60" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="11">
@@ -1788,19 +1797,19 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="48"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="25" t="s">
         <v>60</v>
       </c>
       <c r="K16" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L16" s="48"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="3"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="53"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="25" t="s">
         <v>11</v>
       </c>
@@ -1815,20 +1824,20 @@
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="48"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="25" t="s">
         <v>61</v>
       </c>
       <c r="K17" s="20">
         <v>6.2</v>
       </c>
-      <c r="L17" s="48"/>
+      <c r="L17" s="47"/>
       <c r="M17" s="3"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="61" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="11">
@@ -1842,19 +1851,19 @@
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="48"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K18" s="20">
         <v>4.2</v>
       </c>
-      <c r="L18" s="48"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="3"/>
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="53"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="25" t="s">
         <v>25</v>
       </c>
@@ -1869,19 +1878,19 @@
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="48"/>
+      <c r="I19" s="47"/>
       <c r="J19" s="25" t="s">
         <v>62</v>
       </c>
       <c r="K19" s="20">
         <v>5.2</v>
       </c>
-      <c r="L19" s="48"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="3"/>
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="25" t="s">
         <v>26</v>
       </c>
@@ -1896,19 +1905,19 @@
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="48"/>
+      <c r="I20" s="47"/>
       <c r="J20" s="25" t="s">
         <v>63</v>
       </c>
       <c r="K20" s="20">
         <v>4.8</v>
       </c>
-      <c r="L20" s="48"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="3"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="53"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="25" t="s">
         <v>13</v>
       </c>
@@ -1923,26 +1932,26 @@
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="48"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="25" t="s">
         <v>64</v>
       </c>
       <c r="K21" s="20">
         <v>4.8</v>
       </c>
-      <c r="L21" s="48"/>
+      <c r="L21" s="47"/>
       <c r="M21" s="3"/>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="53"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="11">
         <v>2.5</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="60" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="11">
@@ -1950,26 +1959,26 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="48"/>
+      <c r="I22" s="47"/>
       <c r="J22" s="25" t="s">
         <v>65</v>
       </c>
       <c r="K22" s="20">
         <v>3.9</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="47"/>
       <c r="M22" s="3"/>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="53"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="60" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="11">
@@ -1977,19 +1986,19 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="48"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="25" t="s">
         <v>66</v>
       </c>
       <c r="K23" s="20">
         <v>4.3</v>
       </c>
-      <c r="L23" s="48"/>
+      <c r="L23" s="47"/>
       <c r="M23" s="3"/>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="53"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="25" t="s">
         <v>16</v>
       </c>
@@ -2004,26 +2013,26 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="48"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="25" t="s">
         <v>67</v>
       </c>
       <c r="K24" s="20">
         <v>4.5</v>
       </c>
-      <c r="L24" s="48"/>
+      <c r="L24" s="47"/>
       <c r="M24" s="3"/>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="53"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="11">
         <v>4.3</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="60" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="11">
@@ -2031,19 +2040,19 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="48"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="25" t="s">
         <v>68</v>
       </c>
       <c r="K25" s="20">
         <v>5.5</v>
       </c>
-      <c r="L25" s="48"/>
+      <c r="L25" s="47"/>
       <c r="M25" s="3"/>
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="27" t="s">
         <v>18</v>
       </c>
@@ -2058,39 +2067,39 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="27" t="s">
+      <c r="I26" s="48"/>
+      <c r="J26" s="62" t="s">
         <v>69</v>
       </c>
       <c r="K26" s="21">
         <v>3.5</v>
       </c>
-      <c r="L26" s="49"/>
+      <c r="L26" s="48"/>
       <c r="M26" s="3"/>
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="2:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
     </row>
     <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="44"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="6" t="s">
         <v>3</v>
       </c>
@@ -2126,14 +2135,14 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="46"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="17">
         <v>11</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="59" t="s">
         <v>91</v>
       </c>
       <c r="F29" s="17">
@@ -2145,30 +2154,30 @@
       <c r="H29" s="17">
         <v>1.8</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="59" t="s">
         <v>103</v>
       </c>
       <c r="J29" s="17">
         <v>18.5</v>
       </c>
-      <c r="K29" s="24" t="s">
-        <v>110</v>
+      <c r="K29" s="59" t="s">
+        <v>109</v>
       </c>
       <c r="L29" s="17">
         <v>5</v>
       </c>
-      <c r="M29" s="24" t="s">
-        <v>119</v>
+      <c r="M29" s="59" t="s">
+        <v>115</v>
       </c>
       <c r="N29" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="11">
         <v>15</v>
       </c>
@@ -2184,30 +2193,30 @@
       <c r="H30" s="11">
         <v>0.12</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="60" t="s">
         <v>104</v>
       </c>
       <c r="J30" s="11">
         <v>2.5</v>
       </c>
-      <c r="K30" s="26" t="s">
-        <v>111</v>
+      <c r="K30" s="60" t="s">
+        <v>110</v>
       </c>
       <c r="L30" s="11">
         <v>5.5</v>
       </c>
-      <c r="M30" s="26" t="s">
-        <v>120</v>
+      <c r="M30" s="60" t="s">
+        <v>116</v>
       </c>
       <c r="N30" s="12">
         <v>2.7</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="34"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="11">
         <v>17</v>
       </c>
@@ -2223,30 +2232,26 @@
       <c r="H31" s="11">
         <v>48</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="60" t="s">
         <v>105</v>
       </c>
       <c r="J31" s="11">
         <v>7</v>
       </c>
-      <c r="K31" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="L31" s="11">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M31" s="26" t="s">
-        <v>121</v>
+      <c r="K31" s="26"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="N31" s="12">
         <v>2.1</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="11">
         <v>52</v>
       </c>
@@ -2257,35 +2262,31 @@
         <v>10.5</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H32" s="11">
         <v>0.25</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="60" t="s">
         <v>106</v>
       </c>
       <c r="J32" s="11">
         <v>17.5</v>
       </c>
-      <c r="K32" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="L32" s="11">
-        <v>4.8</v>
-      </c>
-      <c r="M32" s="26" t="s">
-        <v>122</v>
+      <c r="K32" s="26"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="60" t="s">
+        <v>118</v>
       </c>
       <c r="N32" s="12">
         <v>5.2</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="11">
         <v>17.5</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>1.8</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H33" s="11">
         <v>48</v>
@@ -2307,20 +2308,16 @@
       <c r="J33" s="11">
         <v>4.8</v>
       </c>
-      <c r="K33" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="L33" s="11">
-        <v>5.2</v>
-      </c>
+      <c r="K33" s="26"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="10"/>
       <c r="N33" s="13"/>
     </row>
     <row r="34" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="34"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="11">
         <v>75</v>
       </c>
@@ -2330,7 +2327,7 @@
       <c r="F34" s="11">
         <v>1</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="60" t="s">
         <v>101</v>
       </c>
       <c r="H34" s="11">
@@ -2342,8 +2339,8 @@
       <c r="J34" s="11">
         <v>5.3</v>
       </c>
-      <c r="K34" s="26" t="s">
-        <v>117</v>
+      <c r="K34" s="60" t="s">
+        <v>113</v>
       </c>
       <c r="L34" s="11">
         <v>2.4</v>
@@ -2352,10 +2349,10 @@
       <c r="N34" s="13"/>
     </row>
     <row r="35" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="36"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="14">
         <v>17</v>
       </c>
@@ -2365,20 +2362,16 @@
       <c r="F35" s="14">
         <v>2.5</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="63" t="s">
         <v>102</v>
       </c>
       <c r="H35" s="14">
         <v>7.5</v>
       </c>
-      <c r="I35" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="J35" s="14">
-        <v>2.4</v>
-      </c>
-      <c r="K35" s="32" t="s">
-        <v>118</v>
+      <c r="I35" s="32"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="63" t="s">
+        <v>114</v>
       </c>
       <c r="L35" s="14">
         <v>2.5</v>
@@ -4327,11 +4320,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B27:N27"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B2:N2"/>
@@ -4347,6 +4335,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B27:N27"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
